--- a/SuppXLS/Scen_NoBndBiomass.xlsx
+++ b/SuppXLS/Scen_NoBndBiomass.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C3BB6C-B353-4D65-A661-F82B951238F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A553DC0-E019-4818-9E93-50DAA82CAA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="23040" windowHeight="12156" xr2:uid="{BE7018FF-1E71-497C-B81B-15F60F150D31}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12072" activeTab="1" xr2:uid="{BE7018FF-1E71-497C-B81B-15F60F150D31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NoBiomassBound" sheetId="1" r:id="rId1"/>
+    <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -61,13 +62,31 @@
   </si>
   <si>
     <t>MinBio-21</t>
+  </si>
+  <si>
+    <t>Workbook purpose:</t>
+  </si>
+  <si>
+    <t>Data source:</t>
+  </si>
+  <si>
+    <t>User-modifiable?</t>
+  </si>
+  <si>
+    <t>Sets an "infinite" biomass supply</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +111,30 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,10 +171,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -140,9 +189,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{981E2779-D777-4806-9E6C-40BD071028A1}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{0E46E5A0-4F42-4AF6-B2DD-768720A09AEE}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{38624C72-A7B5-46AF-8F72-357EE0517362}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{75635C85-C75B-4262-ABBE-E46DACBE4688}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{73756F7B-E126-4520-B084-ABD53940150A}"/>
+    <cellStyle name="Normale_B2020" xfId="6" xr:uid="{EB96B41F-3F7F-42C0-9720-36FA1E320CAE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB51F977-DAE5-42A4-813B-1807255C8CC8}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -509,4 +566,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F93BBA8-4C58-4528-89E9-912C25753221}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>